--- a/MPM/需求文件/新增审批流汇总.xlsx
+++ b/MPM/需求文件/新增审批流汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1188,16 +1188,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,12 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1389,6 +1380,251 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14830425" y="228600"/>
+          <a:ext cx="685800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14830425" y="228600"/>
+          <a:ext cx="685800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15516225" y="457200"/>
+          <a:ext cx="685800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14144625" y="457200"/>
+          <a:ext cx="685800" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>108585</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="image.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14164310" y="45720"/>
+          <a:ext cx="6946900" cy="4914900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1673225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>128905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="20230922114002-image"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11988800" y="5180965"/>
+          <a:ext cx="11715750" cy="4374515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1657,92 +1893,92 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="10.8333333333333" style="30"/>
-    <col min="3" max="3" width="23" style="30" customWidth="1"/>
-    <col min="4" max="4" width="10.8333333333333" style="30"/>
-    <col min="5" max="5" width="57.1666666666667" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="10.8333333333333" style="30"/>
+    <col min="1" max="2" width="10.8333333333333" style="27"/>
+    <col min="3" max="3" width="23" style="27" customWidth="1"/>
+    <col min="4" max="4" width="10.8333333333333" style="27"/>
+    <col min="5" max="5" width="57.1666666666667" style="27" customWidth="1"/>
+    <col min="6" max="16384" width="10.8333333333333" style="27"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" ht="21" spans="1:6">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" ht="21" spans="1:6">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" ht="21" spans="1:6">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="37"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" ht="21" spans="1:6">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" ht="222" customHeight="1" spans="1:6">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1762,172 +1998,172 @@
   <sheetPr/>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="21.3333333333333" style="24" customWidth="1"/>
-    <col min="2" max="2" width="18.1666666666667" style="24" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" style="24" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="24" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="24" customWidth="1"/>
-    <col min="6" max="6" width="21.6666666666667" style="24" customWidth="1"/>
-    <col min="7" max="7" width="22.875" style="24" customWidth="1"/>
-    <col min="8" max="16384" width="10.8333333333333" style="24"/>
+    <col min="1" max="1" width="21.3333333333333" style="21" customWidth="1"/>
+    <col min="2" max="2" width="18.1666666666667" style="21" customWidth="1"/>
+    <col min="3" max="3" width="15.3333333333333" style="21" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="21" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" style="21" customWidth="1"/>
+    <col min="7" max="7" width="22.875" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="10.8333333333333" style="21"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" ht="50" customHeight="1" spans="1:6">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:6">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="31" customHeight="1" spans="1:6">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="24"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="26" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="26" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1945,8 +2181,8 @@
   <sheetPr/>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="A10:F15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1963,231 +2199,231 @@
   </cols>
   <sheetData>
     <row r="1" ht="18" spans="1:9">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" ht="34.5" spans="1:9">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="H3" s="9" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="H3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="H4" s="9" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="H5" s="9" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:9">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="C6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:3">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" ht="47" customHeight="1"/>
     <row r="9" spans="7:8">
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" ht="18" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" ht="18" spans="1:8">
-      <c r="A11" s="6"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" ht="18" spans="1:8">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" ht="18" spans="1:8">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" ht="18" spans="1:8">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" ht="69" spans="1:7">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2198,6 +2434,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2207,7 +2444,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
@@ -2223,100 +2460,100 @@
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="18" spans="1:5">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" ht="18" spans="1:5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="18" spans="1:5">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="18" spans="1:5">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" ht="18" spans="1:5">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="16"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="18" spans="1:5">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
